--- a/dataset/sql_datasets/collective_discipline.xlsx
+++ b/dataset/sql_datasets/collective_discipline.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CEA3FE-C283-4120-AFAE-257B9A677ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6877D3-3D58-4C36-8DF8-33A719431596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="1230" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18885" yWindow="45" windowWidth="19530" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -84,36 +93,6 @@
     <t>Beach Volleyball</t>
   </si>
   <si>
-    <t>Canoe Sprint</t>
-  </si>
-  <si>
-    <t>Canoe Double 1000m</t>
-  </si>
-  <si>
-    <t>Canoe Double 500m</t>
-  </si>
-  <si>
-    <t>Kayak Double 1000m</t>
-  </si>
-  <si>
-    <t>Kayak Double 500m</t>
-  </si>
-  <si>
-    <t>Kayak Four 500m</t>
-  </si>
-  <si>
-    <t>Cycling Track</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Team Pursuit</t>
-  </si>
-  <si>
-    <t>Team Sprint</t>
-  </si>
-  <si>
     <t>Diving</t>
   </si>
   <si>
@@ -253,6 +232,36 @@
   </si>
   <si>
     <t>disciplineName</t>
+  </si>
+  <si>
+    <t>Track Team Sprint</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Track Team Pursuit</t>
+  </si>
+  <si>
+    <t>Track Madison</t>
+  </si>
+  <si>
+    <t>Canoe</t>
+  </si>
+  <si>
+    <t>Sprint Kayak Four 500m</t>
+  </si>
+  <si>
+    <t>Sprint Kayak Double 500m</t>
+  </si>
+  <si>
+    <t>Sprint Kayak Double 1000m</t>
+  </si>
+  <si>
+    <t>Sprint Canoe Double 500m</t>
+  </si>
+  <si>
+    <t>Sprint Canoe Double 1000m</t>
   </si>
 </sst>
 </file>
@@ -572,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,16 +595,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,10 +934,10 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -939,10 +948,10 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -953,10 +962,10 @@
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -967,10 +976,10 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -981,10 +990,10 @@
         <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -995,10 +1004,10 @@
         <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
@@ -1009,10 +1018,10 @@
         <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1023,10 +1032,10 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -1037,10 +1046,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1051,10 +1060,10 @@
         <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1065,10 +1074,10 @@
         <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -1079,10 +1088,10 @@
         <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1093,10 +1102,10 @@
         <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -1107,10 +1116,10 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1121,10 +1130,10 @@
         <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -1135,10 +1144,10 @@
         <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1149,10 +1158,10 @@
         <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1163,10 +1172,10 @@
         <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1177,10 +1186,10 @@
         <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1191,10 +1200,10 @@
         <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -1205,10 +1214,10 @@
         <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1219,10 +1228,10 @@
         <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -1233,10 +1242,10 @@
         <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1247,10 +1256,10 @@
         <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -1261,10 +1270,10 @@
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1275,7 +1284,7 @@
         <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1289,7 +1298,7 @@
         <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1303,7 +1312,7 @@
         <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1317,7 +1326,7 @@
         <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1331,7 +1340,7 @@
         <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1345,7 +1354,7 @@
         <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1359,7 +1368,7 @@
         <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1373,10 +1382,10 @@
         <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
@@ -1387,10 +1396,10 @@
         <v>197</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -1401,10 +1410,10 @@
         <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -1415,10 +1424,10 @@
         <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -1429,10 +1438,10 @@
         <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -1443,10 +1452,10 @@
         <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -1457,10 +1466,10 @@
         <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
@@ -1471,10 +1480,10 @@
         <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -1485,10 +1494,10 @@
         <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -1499,10 +1508,10 @@
         <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -1513,10 +1522,10 @@
         <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
@@ -1527,10 +1536,10 @@
         <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -1541,10 +1550,10 @@
         <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
@@ -1555,7 +1564,7 @@
         <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1569,7 +1578,7 @@
         <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1583,7 +1592,7 @@
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <v>470</v>
@@ -1597,7 +1606,7 @@
         <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C73">
         <v>470</v>
@@ -1611,10 +1620,10 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -1625,10 +1634,10 @@
         <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
@@ -1639,10 +1648,10 @@
         <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1653,10 +1662,10 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1667,10 +1676,10 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1681,10 +1690,10 @@
         <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1695,10 +1704,10 @@
         <v>265</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -1709,10 +1718,10 @@
         <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -1723,10 +1732,10 @@
         <v>267</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1737,10 +1746,10 @@
         <v>268</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1751,10 +1760,10 @@
         <v>269</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -1765,10 +1774,10 @@
         <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -1779,7 +1788,7 @@
         <v>279</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -1793,7 +1802,7 @@
         <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1807,7 +1816,7 @@
         <v>283</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1821,7 +1830,7 @@
         <v>292</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -1835,7 +1844,7 @@
         <v>293</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -1849,7 +1858,7 @@
         <v>294</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -1863,10 +1872,10 @@
         <v>300</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -1877,7 +1886,7 @@
         <v>302</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -1891,7 +1900,7 @@
         <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1905,7 +1914,7 @@
         <v>304</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -1919,7 +1928,7 @@
         <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>

--- a/dataset/sql_datasets/collective_discipline.xlsx
+++ b/dataset/sql_datasets/collective_discipline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6877D3-3D58-4C36-8DF8-33A719431596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE7E4F-0003-40F1-8622-4340B3764C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="45" windowWidth="19530" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="72">
   <si>
     <t>3x3 Basketball</t>
   </si>
@@ -220,18 +220,6 @@
   </si>
   <si>
     <t>Water Polo</t>
-  </si>
-  <si>
-    <t>permittedGender</t>
-  </si>
-  <si>
-    <t>idSport</t>
-  </si>
-  <si>
-    <t>sportName</t>
-  </si>
-  <si>
-    <t>disciplineName</t>
   </si>
   <si>
     <t>Track Team Sprint</t>
@@ -579,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,50 +582,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -646,12 +634,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -660,26 +648,26 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -688,18 +676,18 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -707,13 +695,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -721,21 +709,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -744,26 +732,26 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -772,12 +760,12 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -786,26 +774,26 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -814,12 +802,12 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -828,278 +816,278 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1108,26 +1096,26 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -1136,32 +1124,32 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1169,13 +1157,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1183,21 +1171,21 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -1206,26 +1194,26 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -1234,26 +1222,26 @@
         <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -1262,138 +1250,138 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
@@ -1402,26 +1390,26 @@
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
         <v>36</v>
@@ -1430,26 +1418,26 @@
         <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -1458,26 +1446,26 @@
         <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -1486,26 +1474,26 @@
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -1514,26 +1502,26 @@
         <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
@@ -1542,54 +1530,54 @@
         <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>470</v>
       </c>
       <c r="D71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
         <v>44</v>
@@ -1598,60 +1586,60 @@
         <v>470</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
       </c>
-      <c r="C73">
-        <v>470</v>
+      <c r="C73" t="s">
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1659,13 +1647,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1673,13 +1661,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1687,21 +1675,21 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
@@ -1710,26 +1698,26 @@
         <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
@@ -1738,26 +1726,26 @@
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
@@ -1766,40 +1754,40 @@
         <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B86" t="s">
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B87" t="s">
         <v>56</v>
@@ -1808,26 +1796,26 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
         <v>57</v>
@@ -1836,12 +1824,12 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
         <v>57</v>
@@ -1850,90 +1838,76 @@
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B93" t="s">
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B95" t="s">
         <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>305</v>
-      </c>
-      <c r="B96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
         <v>2</v>
       </c>
     </row>
